--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -460,6 +460,20 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dcdc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dcdc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -471,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -521,6 +535,26 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>781523035</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Liran</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
